--- a/medicine/Œil et vue/Extensions_de_cils/Extensions_de_cils.xlsx
+++ b/medicine/Œil et vue/Extensions_de_cils/Extensions_de_cils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les extensions de cils peuvent être du cil à cil (un cil synthétique collé sur un cil naturel) ou en volume ( à partir de 2 cils synthétique collé sur un cil naturel). Ce soin à pour but d'allonger, de donner du volume le cil naturel et embellir l'œil de la personne en prenant compte de la forme de son visage. Les cils sont en fibre de soie ou en micro fibre (les extensions en plastique n'existent plus chez les fournisseurs agréés).
 Il existe plusieurs prestations d'extensions de cils : pose complète, pose aux ⅔, pose aux coins externes et la retouche.
@@ -516,12 +528,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1882, Henry Labouchère du journal britannique Truth rapportait que "les Parisiens ont découvert comment fabriquer des faux cils" en faisant coudre des cheveux sur les paupières[1]. Un rapport similaire est apparu dans l'édition du 6 juillet 1899 de The Dundee Courier qui décrivait la méthode douloureuse pour allonger les cils. Le titre se traduit par "Des yeux irrésistibles peuvent être obtenus en transplantant des cheveux". L'article expliquait comment la procédure permettait d'obtenir des cils plus longs en cousant des cheveux du cuir chevelu dans les paupières[2].
-En 1902, Karl Nessler, un spécialiste allemand du cheveu et inventeur renommé, a breveté "Une nouvelle ou meilleure méthode de et moyens pour la fabrication de sourcils artificiels, de cils et similaires" au Royaume-Uni[3]. Dès 1903, il commença à vendre des faux cils dans son salon de Londres situé sur Great Castle Street[4],[5]. Il utilisa les profits de ses ventes pour financer sa prochaine invention, la machine à permanent (perm)[6],[7]. En 1911, une Canadienne nommée Anna Taylor a breveté les faux cils aux États-Unis. Les faux cils de Taylor étaient composés d'une bande de tissu en forme de croissant sur laquelle étaient placés de petits morceaux de cheveux[8]. Un autre inventeur notable de faux cils est Maksymilian Faktorowicz, un gourou de la beauté polonais et homme d'affaires, qui a fondé l'entreprise Max Factor[9],[10].
-En 1916, pendant la réalisation de son film Intolérance, le réalisateur D. W. Griffith voulait que l'actrice Seena Owen ait des cils "qui brossaient ses joues, pour que ses yeux brillent plus que la vie". Les faux cils, qui étaient faits de cheveux humains, étaient tissés par un fabricant de perruques local. Les cils étaient collés avec de la gum spirit. Un jour, Owen s'est présentée avec les yeux presque fermés à cause de l'enflure, a écrit sa co-star Lillian Gish dans ses mémoires[11].
-Dans les années 1930, les faux cils devenaient de plus en plus courants. Ils étaient présentés dans le magazine Vogue. Les faux cils étaient souvent portés par les actrices et les femmes d'affaires. Cependant, ils étaient critiqués par certains comme un moyen d'imiter l'apparence des autres et de se conformer aux normes de beauté irréalistes. En 1938, le Ladies Home Journal rapportait que "le port de faux cils pour simplement renforcer la beauté naturelle de l'œil est une mode démodée."[12]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1882, Henry Labouchère du journal britannique Truth rapportait que "les Parisiens ont découvert comment fabriquer des faux cils" en faisant coudre des cheveux sur les paupières. Un rapport similaire est apparu dans l'édition du 6 juillet 1899 de The Dundee Courier qui décrivait la méthode douloureuse pour allonger les cils. Le titre se traduit par "Des yeux irrésistibles peuvent être obtenus en transplantant des cheveux". L'article expliquait comment la procédure permettait d'obtenir des cils plus longs en cousant des cheveux du cuir chevelu dans les paupières.
+En 1902, Karl Nessler, un spécialiste allemand du cheveu et inventeur renommé, a breveté "Une nouvelle ou meilleure méthode de et moyens pour la fabrication de sourcils artificiels, de cils et similaires" au Royaume-Uni. Dès 1903, il commença à vendre des faux cils dans son salon de Londres situé sur Great Castle Street,. Il utilisa les profits de ses ventes pour financer sa prochaine invention, la machine à permanent (perm),. En 1911, une Canadienne nommée Anna Taylor a breveté les faux cils aux États-Unis. Les faux cils de Taylor étaient composés d'une bande de tissu en forme de croissant sur laquelle étaient placés de petits morceaux de cheveux. Un autre inventeur notable de faux cils est Maksymilian Faktorowicz, un gourou de la beauté polonais et homme d'affaires, qui a fondé l'entreprise Max Factor,.
+En 1916, pendant la réalisation de son film Intolérance, le réalisateur D. W. Griffith voulait que l'actrice Seena Owen ait des cils "qui brossaient ses joues, pour que ses yeux brillent plus que la vie". Les faux cils, qui étaient faits de cheveux humains, étaient tissés par un fabricant de perruques local. Les cils étaient collés avec de la gum spirit. Un jour, Owen s'est présentée avec les yeux presque fermés à cause de l'enflure, a écrit sa co-star Lillian Gish dans ses mémoires.
+Dans les années 1930, les faux cils devenaient de plus en plus courants. Ils étaient présentés dans le magazine Vogue. Les faux cils étaient souvent portés par les actrices et les femmes d'affaires. Cependant, ils étaient critiqués par certains comme un moyen d'imiter l'apparence des autres et de se conformer aux normes de beauté irréalistes. En 1938, le Ladies Home Journal rapportait que "le port de faux cils pour simplement renforcer la beauté naturelle de l'œil est une mode démodée."
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première prestation dure entre 1h30 et 2 h suivant la technique choisie. La cliente est installée sur un lit d'esthétique, elle ferme les yeux.
 La poseuse de cils place des patchs ainsi que des bandes adhésives sur les paupières inférieures, afin d'éviter que les cils du haut viennent se mélanger avec les cils du bas, mais également sur les paupières du dessus afin que la cliente conserve par sécurité les yeux bien fermés pendant toute la durée de la prestation.
@@ -583,7 +599,9 @@
           <t>Autres méthodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les extensions de cils ne doivent pas être confondues avec les faux-cils, qui sont des franges vendues au grand public ; celles-ci sont temporaires et doivent être enlevées quotidiennement.
 </t>
@@ -614,7 +632,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Personnes souffrant de dermatite
 Chirurgie aux yeux depuis moins de 3 mois (laser, glaucome, cataracte)
